--- a/Data xlsx/constructors.xlsx
+++ b/Data xlsx/constructors.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Analysis\Formula 1\Data xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E60F28E-6593-480F-93B9-4D96A8445FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D8DEF8-2F8C-450F-8AFF-8AAEE0319FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="constructors" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="constructors" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="629">
   <si>
     <t>constructorId</t>
   </si>
@@ -1895,6 +1899,18 @@
   </si>
   <si>
     <t>http://en.wikipedia.org/wiki/Alpine_F1_Team</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Count of name</t>
   </si>
 </sst>
 </file>
@@ -2378,8 +2394,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2425,7 +2446,43 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2436,6 +2493,1762 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Filipe Silva" refreshedDate="45092.825679513888" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="212" xr:uid="{0B120631-AEF8-41C3-BA76-4A654BBA392F}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C1:C1048576" sheet="constructors"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="name" numFmtId="0">
+      <sharedItems containsBlank="1" count="212">
+        <s v="McLaren"/>
+        <s v="BMW Sauber"/>
+        <s v="Williams"/>
+        <s v="Renault"/>
+        <s v="Toro Rosso"/>
+        <s v="Ferrari"/>
+        <s v="Toyota"/>
+        <s v="Super Aguri"/>
+        <s v="Red Bull"/>
+        <s v="Force India"/>
+        <s v="Honda"/>
+        <s v="Spyker"/>
+        <s v="MF1"/>
+        <s v="Spyker MF1"/>
+        <s v="Sauber"/>
+        <s v="BAR"/>
+        <s v="Jordan"/>
+        <s v="Minardi"/>
+        <s v="Jaguar"/>
+        <s v="Prost"/>
+        <s v="Arrows"/>
+        <s v="Benetton"/>
+        <s v="Brawn"/>
+        <s v="Stewart"/>
+        <s v="Tyrrell"/>
+        <s v="Lola"/>
+        <s v="Ligier"/>
+        <s v="Forti"/>
+        <s v="Footwork"/>
+        <s v="Pacific"/>
+        <s v="Simtek"/>
+        <s v="Team Lotus"/>
+        <s v="Larrousse"/>
+        <s v="Brabham"/>
+        <s v="Dallara"/>
+        <s v="Fondmetal"/>
+        <s v="March"/>
+        <s v="Andrea Moda"/>
+        <s v="AGS"/>
+        <s v="Lambo"/>
+        <s v="Leyton House"/>
+        <s v="Coloni"/>
+        <s v="Euro Brun"/>
+        <s v="Osella"/>
+        <s v="Onyx"/>
+        <s v="Life"/>
+        <s v="Rial"/>
+        <s v="Zakspeed"/>
+        <s v="RAM"/>
+        <s v="Alfa Romeo"/>
+        <s v="Spirit"/>
+        <s v="Toleman"/>
+        <s v="ATS"/>
+        <s v="Theodore"/>
+        <s v="Fittipaldi"/>
+        <s v="Ensign"/>
+        <s v="Shadow"/>
+        <s v="Wolf"/>
+        <s v="Merzario"/>
+        <s v="Kauhsen"/>
+        <s v="Rebaque"/>
+        <s v="Surtees"/>
+        <s v="Hesketh"/>
+        <s v="Martini"/>
+        <s v="BRM"/>
+        <s v="Penske"/>
+        <s v="LEC"/>
+        <s v="McGuire"/>
+        <s v="Boro"/>
+        <s v="Apollon"/>
+        <s v="Kojima"/>
+        <s v="Parnelli"/>
+        <s v="Maki"/>
+        <s v="Embassy Hill"/>
+        <s v="Lyncar"/>
+        <s v="Trojan"/>
+        <s v="Amon"/>
+        <s v="Token"/>
+        <s v="Iso Marlboro"/>
+        <s v="Tecno"/>
+        <s v="Matra"/>
+        <s v="Politoys"/>
+        <s v="Connew"/>
+        <s v="Bellasi"/>
+        <s v="De Tomaso"/>
+        <s v="Cooper"/>
+        <s v="Eagle"/>
+        <s v="LDS"/>
+        <s v="Protos"/>
+        <s v="Shannon"/>
+        <s v="Scirocco"/>
+        <s v="RE"/>
+        <s v="BRP"/>
+        <s v="Porsche"/>
+        <s v="Derrington"/>
+        <s v="Gilby"/>
+        <s v="Stebro"/>
+        <s v="Emeryson"/>
+        <s v="ENB"/>
+        <s v="JBW"/>
+        <s v="Ferguson"/>
+        <s v="MBM"/>
+        <s v="Behra-Porsche"/>
+        <s v="Maserati"/>
+        <s v="Scarab"/>
+        <s v="Watson"/>
+        <s v="Epperly"/>
+        <s v="Phillips"/>
+        <s v="Lesovsky"/>
+        <s v="Trevis"/>
+        <s v="Meskowski"/>
+        <s v="Kurtis Kraft"/>
+        <s v="Kuzma"/>
+        <s v="Christensen"/>
+        <s v="Ewing"/>
+        <s v="Aston Martin"/>
+        <s v="Vanwall"/>
+        <s v="Moore"/>
+        <s v="Dunn"/>
+        <s v="Elder"/>
+        <s v="Sutton"/>
+        <s v="Fry"/>
+        <s v="Tec-Mec"/>
+        <s v="Connaught"/>
+        <s v="Alta"/>
+        <s v="OSCA"/>
+        <s v="Gordini"/>
+        <s v="Stevens"/>
+        <s v="Bugatti"/>
+        <s v="Mercedes"/>
+        <s v="Lancia"/>
+        <s v="HWM"/>
+        <s v="Schroeder"/>
+        <s v="Pawl"/>
+        <s v="Pankratz"/>
+        <s v="Arzani-Volpini"/>
+        <s v="Nichels"/>
+        <s v="Bromme"/>
+        <s v="Klenk"/>
+        <s v="Simca"/>
+        <s v="Turner"/>
+        <s v="Del Roy"/>
+        <s v="Veritas"/>
+        <s v="BMW"/>
+        <s v="EMW"/>
+        <s v="AFM"/>
+        <s v="Frazer Nash"/>
+        <s v="Sherman"/>
+        <s v="Deidt"/>
+        <s v="ERA"/>
+        <s v="Aston Butterworth"/>
+        <s v="Cisitalia"/>
+        <s v="Talbot-Lago"/>
+        <s v="Hall"/>
+        <s v="Marchese"/>
+        <s v="Langley"/>
+        <s v="Rae"/>
+        <s v="Olson"/>
+        <s v="Wetteroth"/>
+        <s v="Adams"/>
+        <s v="Snowberger"/>
+        <s v="Milano"/>
+        <s v="HRT"/>
+        <s v="Cooper-Maserati"/>
+        <s v="Virgin"/>
+        <s v="Cooper-OSCA"/>
+        <s v="Cooper-Borgward"/>
+        <s v="Cooper-Climax"/>
+        <s v="Cooper-Castellotti"/>
+        <s v="Lotus-Climax"/>
+        <s v="Lotus-Maserati"/>
+        <s v="De Tomaso-Osca"/>
+        <s v="De Tomaso-Alfa Romeo"/>
+        <s v="Lotus-BRM"/>
+        <s v="Lotus-Borgward"/>
+        <s v="Cooper-Alfa Romeo"/>
+        <s v="De Tomaso-Ferrari"/>
+        <s v="Lotus-Ford"/>
+        <s v="Brabham-BRM"/>
+        <s v="Brabham-Ford"/>
+        <s v="Brabham-Climax"/>
+        <s v="LDS-Climax"/>
+        <s v="LDS-Alfa Romeo"/>
+        <s v="Cooper-Ford"/>
+        <s v="McLaren-Ford"/>
+        <s v="McLaren-Serenissima"/>
+        <s v="Eagle-Climax"/>
+        <s v="Eagle-Weslake"/>
+        <s v="Brabham-Repco"/>
+        <s v="Cooper-Ferrari"/>
+        <s v="Cooper-ATS"/>
+        <s v="McLaren-BRM"/>
+        <s v="Cooper-BRM"/>
+        <s v="Matra-Ford"/>
+        <s v="BRM-Ford"/>
+        <s v="McLaren-Alfa Romeo"/>
+        <s v="March-Alfa Romeo"/>
+        <s v="March-Ford"/>
+        <s v="Lotus-Pratt &amp;amp; Whitney"/>
+        <s v="Shadow-Ford"/>
+        <s v="Shadow-Matra"/>
+        <s v="Brabham-Alfa Romeo"/>
+        <s v="Lotus"/>
+        <s v="Marussia"/>
+        <s v="Caterham"/>
+        <s v="Lotus F1"/>
+        <s v="Manor Marussia"/>
+        <s v="Haas F1 Team"/>
+        <s v="Racing Point"/>
+        <s v="AlphaTauri"/>
+        <s v="Alpine F1 Team"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="212">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="62"/>
+  </r>
+  <r>
+    <x v="63"/>
+  </r>
+  <r>
+    <x v="64"/>
+  </r>
+  <r>
+    <x v="65"/>
+  </r>
+  <r>
+    <x v="66"/>
+  </r>
+  <r>
+    <x v="67"/>
+  </r>
+  <r>
+    <x v="68"/>
+  </r>
+  <r>
+    <x v="69"/>
+  </r>
+  <r>
+    <x v="70"/>
+  </r>
+  <r>
+    <x v="71"/>
+  </r>
+  <r>
+    <x v="72"/>
+  </r>
+  <r>
+    <x v="73"/>
+  </r>
+  <r>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="76"/>
+  </r>
+  <r>
+    <x v="77"/>
+  </r>
+  <r>
+    <x v="78"/>
+  </r>
+  <r>
+    <x v="79"/>
+  </r>
+  <r>
+    <x v="80"/>
+  </r>
+  <r>
+    <x v="81"/>
+  </r>
+  <r>
+    <x v="82"/>
+  </r>
+  <r>
+    <x v="83"/>
+  </r>
+  <r>
+    <x v="84"/>
+  </r>
+  <r>
+    <x v="85"/>
+  </r>
+  <r>
+    <x v="86"/>
+  </r>
+  <r>
+    <x v="87"/>
+  </r>
+  <r>
+    <x v="88"/>
+  </r>
+  <r>
+    <x v="89"/>
+  </r>
+  <r>
+    <x v="90"/>
+  </r>
+  <r>
+    <x v="91"/>
+  </r>
+  <r>
+    <x v="92"/>
+  </r>
+  <r>
+    <x v="93"/>
+  </r>
+  <r>
+    <x v="94"/>
+  </r>
+  <r>
+    <x v="95"/>
+  </r>
+  <r>
+    <x v="96"/>
+  </r>
+  <r>
+    <x v="97"/>
+  </r>
+  <r>
+    <x v="98"/>
+  </r>
+  <r>
+    <x v="99"/>
+  </r>
+  <r>
+    <x v="100"/>
+  </r>
+  <r>
+    <x v="101"/>
+  </r>
+  <r>
+    <x v="102"/>
+  </r>
+  <r>
+    <x v="103"/>
+  </r>
+  <r>
+    <x v="104"/>
+  </r>
+  <r>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="106"/>
+  </r>
+  <r>
+    <x v="107"/>
+  </r>
+  <r>
+    <x v="108"/>
+  </r>
+  <r>
+    <x v="109"/>
+  </r>
+  <r>
+    <x v="110"/>
+  </r>
+  <r>
+    <x v="111"/>
+  </r>
+  <r>
+    <x v="112"/>
+  </r>
+  <r>
+    <x v="113"/>
+  </r>
+  <r>
+    <x v="114"/>
+  </r>
+  <r>
+    <x v="115"/>
+  </r>
+  <r>
+    <x v="116"/>
+  </r>
+  <r>
+    <x v="117"/>
+  </r>
+  <r>
+    <x v="118"/>
+  </r>
+  <r>
+    <x v="119"/>
+  </r>
+  <r>
+    <x v="120"/>
+  </r>
+  <r>
+    <x v="121"/>
+  </r>
+  <r>
+    <x v="122"/>
+  </r>
+  <r>
+    <x v="123"/>
+  </r>
+  <r>
+    <x v="124"/>
+  </r>
+  <r>
+    <x v="125"/>
+  </r>
+  <r>
+    <x v="126"/>
+  </r>
+  <r>
+    <x v="127"/>
+  </r>
+  <r>
+    <x v="128"/>
+  </r>
+  <r>
+    <x v="129"/>
+  </r>
+  <r>
+    <x v="130"/>
+  </r>
+  <r>
+    <x v="131"/>
+  </r>
+  <r>
+    <x v="132"/>
+  </r>
+  <r>
+    <x v="133"/>
+  </r>
+  <r>
+    <x v="134"/>
+  </r>
+  <r>
+    <x v="135"/>
+  </r>
+  <r>
+    <x v="136"/>
+  </r>
+  <r>
+    <x v="137"/>
+  </r>
+  <r>
+    <x v="138"/>
+  </r>
+  <r>
+    <x v="139"/>
+  </r>
+  <r>
+    <x v="140"/>
+  </r>
+  <r>
+    <x v="141"/>
+  </r>
+  <r>
+    <x v="142"/>
+  </r>
+  <r>
+    <x v="143"/>
+  </r>
+  <r>
+    <x v="144"/>
+  </r>
+  <r>
+    <x v="145"/>
+  </r>
+  <r>
+    <x v="146"/>
+  </r>
+  <r>
+    <x v="147"/>
+  </r>
+  <r>
+    <x v="148"/>
+  </r>
+  <r>
+    <x v="149"/>
+  </r>
+  <r>
+    <x v="150"/>
+  </r>
+  <r>
+    <x v="151"/>
+  </r>
+  <r>
+    <x v="152"/>
+  </r>
+  <r>
+    <x v="153"/>
+  </r>
+  <r>
+    <x v="154"/>
+  </r>
+  <r>
+    <x v="155"/>
+  </r>
+  <r>
+    <x v="156"/>
+  </r>
+  <r>
+    <x v="157"/>
+  </r>
+  <r>
+    <x v="158"/>
+  </r>
+  <r>
+    <x v="159"/>
+  </r>
+  <r>
+    <x v="160"/>
+  </r>
+  <r>
+    <x v="161"/>
+  </r>
+  <r>
+    <x v="162"/>
+  </r>
+  <r>
+    <x v="163"/>
+  </r>
+  <r>
+    <x v="164"/>
+  </r>
+  <r>
+    <x v="165"/>
+  </r>
+  <r>
+    <x v="166"/>
+  </r>
+  <r>
+    <x v="167"/>
+  </r>
+  <r>
+    <x v="168"/>
+  </r>
+  <r>
+    <x v="169"/>
+  </r>
+  <r>
+    <x v="170"/>
+  </r>
+  <r>
+    <x v="171"/>
+  </r>
+  <r>
+    <x v="172"/>
+  </r>
+  <r>
+    <x v="173"/>
+  </r>
+  <r>
+    <x v="174"/>
+  </r>
+  <r>
+    <x v="175"/>
+  </r>
+  <r>
+    <x v="176"/>
+  </r>
+  <r>
+    <x v="177"/>
+  </r>
+  <r>
+    <x v="178"/>
+  </r>
+  <r>
+    <x v="179"/>
+  </r>
+  <r>
+    <x v="180"/>
+  </r>
+  <r>
+    <x v="181"/>
+  </r>
+  <r>
+    <x v="182"/>
+  </r>
+  <r>
+    <x v="183"/>
+  </r>
+  <r>
+    <x v="184"/>
+  </r>
+  <r>
+    <x v="185"/>
+  </r>
+  <r>
+    <x v="186"/>
+  </r>
+  <r>
+    <x v="187"/>
+  </r>
+  <r>
+    <x v="188"/>
+  </r>
+  <r>
+    <x v="189"/>
+  </r>
+  <r>
+    <x v="190"/>
+  </r>
+  <r>
+    <x v="191"/>
+  </r>
+  <r>
+    <x v="192"/>
+  </r>
+  <r>
+    <x v="193"/>
+  </r>
+  <r>
+    <x v="194"/>
+  </r>
+  <r>
+    <x v="195"/>
+  </r>
+  <r>
+    <x v="196"/>
+  </r>
+  <r>
+    <x v="197"/>
+  </r>
+  <r>
+    <x v="198"/>
+  </r>
+  <r>
+    <x v="199"/>
+  </r>
+  <r>
+    <x v="200"/>
+  </r>
+  <r>
+    <x v="201"/>
+  </r>
+  <r>
+    <x v="202"/>
+  </r>
+  <r>
+    <x v="203"/>
+  </r>
+  <r>
+    <x v="204"/>
+  </r>
+  <r>
+    <x v="205"/>
+  </r>
+  <r>
+    <x v="206"/>
+  </r>
+  <r>
+    <x v="207"/>
+  </r>
+  <r>
+    <x v="208"/>
+  </r>
+  <r>
+    <x v="209"/>
+  </r>
+  <r>
+    <x v="210"/>
+  </r>
+  <r>
+    <x v="211"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{74E316E5-0DFC-4695-9DE8-4B34A47BF3F9}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B216" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="213">
+        <item x="36"/>
+        <item x="159"/>
+        <item x="145"/>
+        <item x="38"/>
+        <item x="49"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="124"/>
+        <item x="76"/>
+        <item x="37"/>
+        <item x="69"/>
+        <item x="20"/>
+        <item x="135"/>
+        <item x="150"/>
+        <item x="115"/>
+        <item x="52"/>
+        <item x="15"/>
+        <item x="102"/>
+        <item x="83"/>
+        <item x="21"/>
+        <item x="143"/>
+        <item x="1"/>
+        <item x="68"/>
+        <item x="33"/>
+        <item x="201"/>
+        <item x="178"/>
+        <item x="180"/>
+        <item x="179"/>
+        <item x="188"/>
+        <item x="22"/>
+        <item x="64"/>
+        <item x="194"/>
+        <item x="137"/>
+        <item x="92"/>
+        <item x="128"/>
+        <item x="204"/>
+        <item x="113"/>
+        <item x="151"/>
+        <item x="41"/>
+        <item x="123"/>
+        <item x="82"/>
+        <item x="85"/>
+        <item x="175"/>
+        <item x="190"/>
+        <item x="166"/>
+        <item x="192"/>
+        <item x="168"/>
+        <item x="167"/>
+        <item x="189"/>
+        <item x="183"/>
+        <item x="163"/>
+        <item x="165"/>
+        <item x="34"/>
+        <item x="84"/>
+        <item x="172"/>
+        <item x="176"/>
+        <item x="171"/>
+        <item x="148"/>
+        <item x="141"/>
+        <item x="94"/>
+        <item x="118"/>
+        <item x="86"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="119"/>
+        <item x="73"/>
+        <item x="97"/>
+        <item x="144"/>
+        <item x="98"/>
+        <item x="55"/>
+        <item x="106"/>
+        <item x="149"/>
+        <item x="42"/>
+        <item x="114"/>
+        <item x="100"/>
+        <item x="5"/>
+        <item x="54"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="9"/>
+        <item x="27"/>
+        <item x="146"/>
+        <item x="121"/>
+        <item x="95"/>
+        <item x="126"/>
+        <item x="207"/>
+        <item x="153"/>
+        <item x="62"/>
+        <item x="10"/>
+        <item x="162"/>
+        <item x="131"/>
+        <item x="78"/>
+        <item x="18"/>
+        <item x="99"/>
+        <item x="16"/>
+        <item x="59"/>
+        <item x="138"/>
+        <item x="70"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="39"/>
+        <item x="130"/>
+        <item x="155"/>
+        <item x="32"/>
+        <item x="87"/>
+        <item x="182"/>
+        <item x="181"/>
+        <item x="66"/>
+        <item x="108"/>
+        <item x="40"/>
+        <item x="45"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="202"/>
+        <item x="205"/>
+        <item x="174"/>
+        <item x="173"/>
+        <item x="169"/>
+        <item x="177"/>
+        <item x="170"/>
+        <item x="198"/>
+        <item x="74"/>
+        <item x="72"/>
+        <item x="206"/>
+        <item x="196"/>
+        <item x="154"/>
+        <item x="197"/>
+        <item x="63"/>
+        <item x="203"/>
+        <item x="103"/>
+        <item x="80"/>
+        <item x="193"/>
+        <item x="101"/>
+        <item x="67"/>
+        <item x="0"/>
+        <item x="195"/>
+        <item x="191"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="129"/>
+        <item x="58"/>
+        <item x="110"/>
+        <item x="12"/>
+        <item x="161"/>
+        <item x="17"/>
+        <item x="117"/>
+        <item x="136"/>
+        <item x="157"/>
+        <item x="44"/>
+        <item x="125"/>
+        <item x="43"/>
+        <item x="29"/>
+        <item x="134"/>
+        <item x="71"/>
+        <item x="133"/>
+        <item x="65"/>
+        <item x="107"/>
+        <item x="81"/>
+        <item x="93"/>
+        <item x="19"/>
+        <item x="88"/>
+        <item x="208"/>
+        <item x="156"/>
+        <item x="48"/>
+        <item x="91"/>
+        <item x="60"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="46"/>
+        <item x="14"/>
+        <item x="104"/>
+        <item x="132"/>
+        <item x="90"/>
+        <item x="56"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="89"/>
+        <item x="147"/>
+        <item x="139"/>
+        <item x="30"/>
+        <item x="160"/>
+        <item x="50"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="96"/>
+        <item x="127"/>
+        <item x="23"/>
+        <item x="7"/>
+        <item x="61"/>
+        <item x="120"/>
+        <item x="152"/>
+        <item x="31"/>
+        <item x="122"/>
+        <item x="79"/>
+        <item x="53"/>
+        <item x="77"/>
+        <item x="51"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="109"/>
+        <item x="75"/>
+        <item x="140"/>
+        <item x="24"/>
+        <item x="116"/>
+        <item x="142"/>
+        <item x="164"/>
+        <item x="105"/>
+        <item x="158"/>
+        <item x="2"/>
+        <item x="57"/>
+        <item x="47"/>
+        <item x="211"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="213">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i>
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="106"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="108"/>
+    </i>
+    <i>
+      <x v="109"/>
+    </i>
+    <i>
+      <x v="110"/>
+    </i>
+    <i>
+      <x v="111"/>
+    </i>
+    <i>
+      <x v="112"/>
+    </i>
+    <i>
+      <x v="113"/>
+    </i>
+    <i>
+      <x v="114"/>
+    </i>
+    <i>
+      <x v="115"/>
+    </i>
+    <i>
+      <x v="116"/>
+    </i>
+    <i>
+      <x v="117"/>
+    </i>
+    <i>
+      <x v="118"/>
+    </i>
+    <i>
+      <x v="119"/>
+    </i>
+    <i>
+      <x v="120"/>
+    </i>
+    <i>
+      <x v="121"/>
+    </i>
+    <i>
+      <x v="122"/>
+    </i>
+    <i>
+      <x v="123"/>
+    </i>
+    <i>
+      <x v="124"/>
+    </i>
+    <i>
+      <x v="125"/>
+    </i>
+    <i>
+      <x v="126"/>
+    </i>
+    <i>
+      <x v="127"/>
+    </i>
+    <i>
+      <x v="128"/>
+    </i>
+    <i>
+      <x v="129"/>
+    </i>
+    <i>
+      <x v="130"/>
+    </i>
+    <i>
+      <x v="131"/>
+    </i>
+    <i>
+      <x v="132"/>
+    </i>
+    <i>
+      <x v="133"/>
+    </i>
+    <i>
+      <x v="134"/>
+    </i>
+    <i>
+      <x v="135"/>
+    </i>
+    <i>
+      <x v="136"/>
+    </i>
+    <i>
+      <x v="137"/>
+    </i>
+    <i>
+      <x v="138"/>
+    </i>
+    <i>
+      <x v="139"/>
+    </i>
+    <i>
+      <x v="140"/>
+    </i>
+    <i>
+      <x v="141"/>
+    </i>
+    <i>
+      <x v="142"/>
+    </i>
+    <i>
+      <x v="143"/>
+    </i>
+    <i>
+      <x v="144"/>
+    </i>
+    <i>
+      <x v="145"/>
+    </i>
+    <i>
+      <x v="146"/>
+    </i>
+    <i>
+      <x v="147"/>
+    </i>
+    <i>
+      <x v="148"/>
+    </i>
+    <i>
+      <x v="149"/>
+    </i>
+    <i>
+      <x v="150"/>
+    </i>
+    <i>
+      <x v="151"/>
+    </i>
+    <i>
+      <x v="152"/>
+    </i>
+    <i>
+      <x v="153"/>
+    </i>
+    <i>
+      <x v="154"/>
+    </i>
+    <i>
+      <x v="155"/>
+    </i>
+    <i>
+      <x v="156"/>
+    </i>
+    <i>
+      <x v="157"/>
+    </i>
+    <i>
+      <x v="158"/>
+    </i>
+    <i>
+      <x v="159"/>
+    </i>
+    <i>
+      <x v="160"/>
+    </i>
+    <i>
+      <x v="161"/>
+    </i>
+    <i>
+      <x v="162"/>
+    </i>
+    <i>
+      <x v="163"/>
+    </i>
+    <i>
+      <x v="164"/>
+    </i>
+    <i>
+      <x v="165"/>
+    </i>
+    <i>
+      <x v="166"/>
+    </i>
+    <i>
+      <x v="167"/>
+    </i>
+    <i>
+      <x v="168"/>
+    </i>
+    <i>
+      <x v="169"/>
+    </i>
+    <i>
+      <x v="170"/>
+    </i>
+    <i>
+      <x v="171"/>
+    </i>
+    <i>
+      <x v="172"/>
+    </i>
+    <i>
+      <x v="173"/>
+    </i>
+    <i>
+      <x v="174"/>
+    </i>
+    <i>
+      <x v="175"/>
+    </i>
+    <i>
+      <x v="176"/>
+    </i>
+    <i>
+      <x v="177"/>
+    </i>
+    <i>
+      <x v="178"/>
+    </i>
+    <i>
+      <x v="179"/>
+    </i>
+    <i>
+      <x v="180"/>
+    </i>
+    <i>
+      <x v="181"/>
+    </i>
+    <i>
+      <x v="182"/>
+    </i>
+    <i>
+      <x v="183"/>
+    </i>
+    <i>
+      <x v="184"/>
+    </i>
+    <i>
+      <x v="185"/>
+    </i>
+    <i>
+      <x v="186"/>
+    </i>
+    <i>
+      <x v="187"/>
+    </i>
+    <i>
+      <x v="188"/>
+    </i>
+    <i>
+      <x v="189"/>
+    </i>
+    <i>
+      <x v="190"/>
+    </i>
+    <i>
+      <x v="191"/>
+    </i>
+    <i>
+      <x v="192"/>
+    </i>
+    <i>
+      <x v="193"/>
+    </i>
+    <i>
+      <x v="194"/>
+    </i>
+    <i>
+      <x v="195"/>
+    </i>
+    <i>
+      <x v="196"/>
+    </i>
+    <i>
+      <x v="197"/>
+    </i>
+    <i>
+      <x v="198"/>
+    </i>
+    <i>
+      <x v="199"/>
+    </i>
+    <i>
+      <x v="200"/>
+    </i>
+    <i>
+      <x v="201"/>
+    </i>
+    <i>
+      <x v="202"/>
+    </i>
+    <i>
+      <x v="203"/>
+    </i>
+    <i>
+      <x v="204"/>
+    </i>
+    <i>
+      <x v="205"/>
+    </i>
+    <i>
+      <x v="206"/>
+    </i>
+    <i>
+      <x v="207"/>
+    </i>
+    <i>
+      <x v="208"/>
+    </i>
+    <i>
+      <x v="209"/>
+    </i>
+    <i>
+      <x v="210"/>
+    </i>
+    <i>
+      <x v="211"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2748,11 +4561,1742 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A9397C-6115-4223-9D5B-F1D30D8E2CCC}">
+  <dimension ref="A3:B216"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="212" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B86" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B89" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B90" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B91" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B93" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B95" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B102" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B103" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B104" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B105" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B106" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B108" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B109" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B110" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B111" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B112" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B113" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B114" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B115" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B116" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B117" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B118" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B119" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B120" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B121" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B122" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B123" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B124" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B125" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B126" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B127" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B128" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B129" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B130" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B131" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B132" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B133" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B135" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B136" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B137" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B139" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B140" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B141" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B142" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B143" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B144" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B145" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B146" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B147" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B148" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B149" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B150" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B151" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B152" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B153" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B154" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B155" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B156" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B157" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B158" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B159" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B160" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B161" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B162" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B163" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B164" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B165" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B166" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B167" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B168" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B169" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B170" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B171" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B172" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B173" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B174" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B175" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B176" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B177" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B178" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B179" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B180" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B181" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B182" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B183" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B184" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B185" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B186" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B187" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B188" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B189" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B190" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B191" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B192" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B193" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B194" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B195" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B196" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B197" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B198" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B199" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B200" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B201" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B202" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B203" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B204" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B205" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B206" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B207" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B208" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B209" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B210" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B211" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B212" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B213" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B214" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B215" s="3"/>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B216" s="3">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6369,9 +9913,15 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:E212">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Data xlsx/constructors.xlsx
+++ b/Data xlsx/constructors.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Analysis\Formula 1\Data xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D8DEF8-2F8C-450F-8AFF-8AAEE0319FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAC96C4-4DC4-4626-B16C-4AC2C74C47F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="constructors" sheetId="1" r:id="rId2"/>
+    <sheet name="constructors_regardless_motor" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="629">
   <si>
     <t>constructorId</t>
   </si>
@@ -2394,13 +2395,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2446,7 +2446,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2455,9 +2475,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3368,7 +3391,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{74E316E5-0DFC-4695-9DE8-4B34A47BF3F9}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{74E316E5-0DFC-4695-9DE8-4B34A47BF3F9}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B216" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -4260,6 +4283,20 @@
     <tableColumn id="3" xr3:uid="{DBA70BAF-EFBB-46A2-988F-8AA00C46DB1A}" name="name"/>
     <tableColumn id="4" xr3:uid="{2EE939F7-A9D4-4377-B57F-2C65D8C63466}" name="nationality"/>
     <tableColumn id="5" xr3:uid="{8218822D-7BED-4A16-965F-ABCF8ED2C07C}" name="url"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AE06EE26-93B5-4111-ACAE-A6D29B59A86F}" name="Table2" displayName="Table2" ref="A1:E180" totalsRowShown="0">
+  <autoFilter ref="A1:E180" xr:uid="{AE06EE26-93B5-4111-ACAE-A6D29B59A86F}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{AE4ABEBC-183A-4183-B17F-87B1AB41BB7B}" name="constructorId"/>
+    <tableColumn id="2" xr3:uid="{5AE2F2FB-1880-413B-9107-0D052F6BA5A2}" name="constructorRef"/>
+    <tableColumn id="3" xr3:uid="{29259F43-535F-484B-8212-94787117B4A8}" name="name"/>
+    <tableColumn id="4" xr3:uid="{C6E3D39B-004F-4721-BB81-CE3F2CEC9A73}" name="nationality"/>
+    <tableColumn id="5" xr3:uid="{22F0F66D-50C2-4F2F-BCE4-D49B29177AD5}" name="url"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4564,8 +4601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A9397C-6115-4223-9D5B-F1D30D8E2CCC}">
   <dimension ref="A3:B216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4588,7 +4625,7 @@
       <c r="A4" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>1</v>
       </c>
     </row>
@@ -4596,7 +4633,7 @@
       <c r="A5" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>1</v>
       </c>
     </row>
@@ -4604,7 +4641,7 @@
       <c r="A6" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>1</v>
       </c>
     </row>
@@ -4612,7 +4649,7 @@
       <c r="A7" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>1</v>
       </c>
     </row>
@@ -4620,7 +4657,7 @@
       <c r="A8" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>1</v>
       </c>
     </row>
@@ -4628,7 +4665,7 @@
       <c r="A9" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>1</v>
       </c>
     </row>
@@ -4636,7 +4673,7 @@
       <c r="A10" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>1</v>
       </c>
     </row>
@@ -4644,7 +4681,7 @@
       <c r="A11" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>1</v>
       </c>
     </row>
@@ -4652,7 +4689,7 @@
       <c r="A12" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>1</v>
       </c>
     </row>
@@ -4660,7 +4697,7 @@
       <c r="A13" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>1</v>
       </c>
     </row>
@@ -4668,7 +4705,7 @@
       <c r="A14" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>1</v>
       </c>
     </row>
@@ -4676,7 +4713,7 @@
       <c r="A15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>1</v>
       </c>
     </row>
@@ -4684,7 +4721,7 @@
       <c r="A16" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>1</v>
       </c>
     </row>
@@ -4692,7 +4729,7 @@
       <c r="A17" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>1</v>
       </c>
     </row>
@@ -4700,7 +4737,7 @@
       <c r="A18" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>1</v>
       </c>
     </row>
@@ -4708,7 +4745,7 @@
       <c r="A19" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>1</v>
       </c>
     </row>
@@ -4716,7 +4753,7 @@
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>1</v>
       </c>
     </row>
@@ -4724,7 +4761,7 @@
       <c r="A21" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21">
         <v>1</v>
       </c>
     </row>
@@ -4732,7 +4769,7 @@
       <c r="A22" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22">
         <v>1</v>
       </c>
     </row>
@@ -4740,7 +4777,7 @@
       <c r="A23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>1</v>
       </c>
     </row>
@@ -4748,7 +4785,7 @@
       <c r="A24" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24">
         <v>1</v>
       </c>
     </row>
@@ -4756,7 +4793,7 @@
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25">
         <v>1</v>
       </c>
     </row>
@@ -4764,7 +4801,7 @@
       <c r="A26" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26">
         <v>1</v>
       </c>
     </row>
@@ -4772,7 +4809,7 @@
       <c r="A27" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27">
         <v>1</v>
       </c>
     </row>
@@ -4780,7 +4817,7 @@
       <c r="A28" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28">
         <v>1</v>
       </c>
     </row>
@@ -4788,7 +4825,7 @@
       <c r="A29" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29">
         <v>1</v>
       </c>
     </row>
@@ -4796,7 +4833,7 @@
       <c r="A30" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30">
         <v>1</v>
       </c>
     </row>
@@ -4804,7 +4841,7 @@
       <c r="A31" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31">
         <v>1</v>
       </c>
     </row>
@@ -4812,7 +4849,7 @@
       <c r="A32" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32">
         <v>1</v>
       </c>
     </row>
@@ -4820,7 +4857,7 @@
       <c r="A33" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33">
         <v>1</v>
       </c>
     </row>
@@ -4828,7 +4865,7 @@
       <c r="A34" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34">
         <v>1</v>
       </c>
     </row>
@@ -4836,7 +4873,7 @@
       <c r="A35" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35">
         <v>1</v>
       </c>
     </row>
@@ -4844,7 +4881,7 @@
       <c r="A36" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36">
         <v>1</v>
       </c>
     </row>
@@ -4852,7 +4889,7 @@
       <c r="A37" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37">
         <v>1</v>
       </c>
     </row>
@@ -4860,7 +4897,7 @@
       <c r="A38" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38">
         <v>1</v>
       </c>
     </row>
@@ -4868,7 +4905,7 @@
       <c r="A39" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39">
         <v>1</v>
       </c>
     </row>
@@ -4876,7 +4913,7 @@
       <c r="A40" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40">
         <v>1</v>
       </c>
     </row>
@@ -4884,7 +4921,7 @@
       <c r="A41" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41">
         <v>1</v>
       </c>
     </row>
@@ -4892,7 +4929,7 @@
       <c r="A42" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42">
         <v>1</v>
       </c>
     </row>
@@ -4900,7 +4937,7 @@
       <c r="A43" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43">
         <v>1</v>
       </c>
     </row>
@@ -4908,7 +4945,7 @@
       <c r="A44" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44">
         <v>1</v>
       </c>
     </row>
@@ -4916,7 +4953,7 @@
       <c r="A45" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45">
         <v>1</v>
       </c>
     </row>
@@ -4924,7 +4961,7 @@
       <c r="A46" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46">
         <v>1</v>
       </c>
     </row>
@@ -4932,7 +4969,7 @@
       <c r="A47" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47">
         <v>1</v>
       </c>
     </row>
@@ -4940,7 +4977,7 @@
       <c r="A48" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48">
         <v>1</v>
       </c>
     </row>
@@ -4948,7 +4985,7 @@
       <c r="A49" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49">
         <v>1</v>
       </c>
     </row>
@@ -4956,7 +4993,7 @@
       <c r="A50" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50">
         <v>1</v>
       </c>
     </row>
@@ -4964,7 +5001,7 @@
       <c r="A51" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51">
         <v>1</v>
       </c>
     </row>
@@ -4972,7 +5009,7 @@
       <c r="A52" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52">
         <v>1</v>
       </c>
     </row>
@@ -4980,7 +5017,7 @@
       <c r="A53" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53">
         <v>1</v>
       </c>
     </row>
@@ -4988,7 +5025,7 @@
       <c r="A54" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54">
         <v>1</v>
       </c>
     </row>
@@ -4996,7 +5033,7 @@
       <c r="A55" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55">
         <v>1</v>
       </c>
     </row>
@@ -5004,7 +5041,7 @@
       <c r="A56" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56">
         <v>1</v>
       </c>
     </row>
@@ -5012,7 +5049,7 @@
       <c r="A57" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57">
         <v>1</v>
       </c>
     </row>
@@ -5020,7 +5057,7 @@
       <c r="A58" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58">
         <v>1</v>
       </c>
     </row>
@@ -5028,7 +5065,7 @@
       <c r="A59" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59">
         <v>1</v>
       </c>
     </row>
@@ -5036,7 +5073,7 @@
       <c r="A60" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60">
         <v>1</v>
       </c>
     </row>
@@ -5044,7 +5081,7 @@
       <c r="A61" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61">
         <v>1</v>
       </c>
     </row>
@@ -5052,7 +5089,7 @@
       <c r="A62" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62">
         <v>1</v>
       </c>
     </row>
@@ -5060,7 +5097,7 @@
       <c r="A63" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63">
         <v>1</v>
       </c>
     </row>
@@ -5068,7 +5105,7 @@
       <c r="A64" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64">
         <v>1</v>
       </c>
     </row>
@@ -5076,7 +5113,7 @@
       <c r="A65" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65">
         <v>1</v>
       </c>
     </row>
@@ -5084,7 +5121,7 @@
       <c r="A66" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66">
         <v>1</v>
       </c>
     </row>
@@ -5092,7 +5129,7 @@
       <c r="A67" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67">
         <v>1</v>
       </c>
     </row>
@@ -5100,7 +5137,7 @@
       <c r="A68" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68">
         <v>1</v>
       </c>
     </row>
@@ -5108,7 +5145,7 @@
       <c r="A69" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69">
         <v>1</v>
       </c>
     </row>
@@ -5116,7 +5153,7 @@
       <c r="A70" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70">
         <v>1</v>
       </c>
     </row>
@@ -5124,7 +5161,7 @@
       <c r="A71" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71">
         <v>1</v>
       </c>
     </row>
@@ -5132,7 +5169,7 @@
       <c r="A72" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72">
         <v>1</v>
       </c>
     </row>
@@ -5140,7 +5177,7 @@
       <c r="A73" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73">
         <v>1</v>
       </c>
     </row>
@@ -5148,7 +5185,7 @@
       <c r="A74" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74">
         <v>1</v>
       </c>
     </row>
@@ -5156,7 +5193,7 @@
       <c r="A75" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75">
         <v>1</v>
       </c>
     </row>
@@ -5164,7 +5201,7 @@
       <c r="A76" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76">
         <v>1</v>
       </c>
     </row>
@@ -5172,7 +5209,7 @@
       <c r="A77" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77">
         <v>1</v>
       </c>
     </row>
@@ -5180,7 +5217,7 @@
       <c r="A78" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78">
         <v>1</v>
       </c>
     </row>
@@ -5188,7 +5225,7 @@
       <c r="A79" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79">
         <v>1</v>
       </c>
     </row>
@@ -5196,7 +5233,7 @@
       <c r="A80" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80">
         <v>1</v>
       </c>
     </row>
@@ -5204,7 +5241,7 @@
       <c r="A81" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81">
         <v>1</v>
       </c>
     </row>
@@ -5212,7 +5249,7 @@
       <c r="A82" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82">
         <v>1</v>
       </c>
     </row>
@@ -5220,7 +5257,7 @@
       <c r="A83" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83">
         <v>1</v>
       </c>
     </row>
@@ -5228,7 +5265,7 @@
       <c r="A84" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84">
         <v>1</v>
       </c>
     </row>
@@ -5236,7 +5273,7 @@
       <c r="A85" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85">
         <v>1</v>
       </c>
     </row>
@@ -5244,7 +5281,7 @@
       <c r="A86" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86">
         <v>1</v>
       </c>
     </row>
@@ -5252,7 +5289,7 @@
       <c r="A87" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87">
         <v>1</v>
       </c>
     </row>
@@ -5260,7 +5297,7 @@
       <c r="A88" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88">
         <v>1</v>
       </c>
     </row>
@@ -5268,7 +5305,7 @@
       <c r="A89" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89">
         <v>1</v>
       </c>
     </row>
@@ -5276,7 +5313,7 @@
       <c r="A90" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90">
         <v>1</v>
       </c>
     </row>
@@ -5284,7 +5321,7 @@
       <c r="A91" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91">
         <v>1</v>
       </c>
     </row>
@@ -5292,7 +5329,7 @@
       <c r="A92" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92">
         <v>1</v>
       </c>
     </row>
@@ -5300,7 +5337,7 @@
       <c r="A93" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93">
         <v>1</v>
       </c>
     </row>
@@ -5308,7 +5345,7 @@
       <c r="A94" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94">
         <v>1</v>
       </c>
     </row>
@@ -5316,7 +5353,7 @@
       <c r="A95" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95">
         <v>1</v>
       </c>
     </row>
@@ -5324,7 +5361,7 @@
       <c r="A96" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96">
         <v>1</v>
       </c>
     </row>
@@ -5332,7 +5369,7 @@
       <c r="A97" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97">
         <v>1</v>
       </c>
     </row>
@@ -5340,7 +5377,7 @@
       <c r="A98" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98">
         <v>1</v>
       </c>
     </row>
@@ -5348,7 +5385,7 @@
       <c r="A99" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99">
         <v>1</v>
       </c>
     </row>
@@ -5356,7 +5393,7 @@
       <c r="A100" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100">
         <v>1</v>
       </c>
     </row>
@@ -5364,7 +5401,7 @@
       <c r="A101" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101">
         <v>1</v>
       </c>
     </row>
@@ -5372,7 +5409,7 @@
       <c r="A102" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102">
         <v>1</v>
       </c>
     </row>
@@ -5380,7 +5417,7 @@
       <c r="A103" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103">
         <v>1</v>
       </c>
     </row>
@@ -5388,7 +5425,7 @@
       <c r="A104" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104">
         <v>1</v>
       </c>
     </row>
@@ -5396,7 +5433,7 @@
       <c r="A105" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105">
         <v>1</v>
       </c>
     </row>
@@ -5404,7 +5441,7 @@
       <c r="A106" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106">
         <v>1</v>
       </c>
     </row>
@@ -5412,7 +5449,7 @@
       <c r="A107" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107">
         <v>1</v>
       </c>
     </row>
@@ -5420,7 +5457,7 @@
       <c r="A108" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108">
         <v>1</v>
       </c>
     </row>
@@ -5428,7 +5465,7 @@
       <c r="A109" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109">
         <v>1</v>
       </c>
     </row>
@@ -5436,7 +5473,7 @@
       <c r="A110" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110">
         <v>1</v>
       </c>
     </row>
@@ -5444,7 +5481,7 @@
       <c r="A111" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111">
         <v>1</v>
       </c>
     </row>
@@ -5452,7 +5489,7 @@
       <c r="A112" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112">
         <v>1</v>
       </c>
     </row>
@@ -5460,7 +5497,7 @@
       <c r="A113" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113">
         <v>1</v>
       </c>
     </row>
@@ -5468,7 +5505,7 @@
       <c r="A114" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114">
         <v>1</v>
       </c>
     </row>
@@ -5476,7 +5513,7 @@
       <c r="A115" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115">
         <v>1</v>
       </c>
     </row>
@@ -5484,7 +5521,7 @@
       <c r="A116" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116">
         <v>1</v>
       </c>
     </row>
@@ -5492,7 +5529,7 @@
       <c r="A117" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117">
         <v>1</v>
       </c>
     </row>
@@ -5500,7 +5537,7 @@
       <c r="A118" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118">
         <v>1</v>
       </c>
     </row>
@@ -5508,7 +5545,7 @@
       <c r="A119" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119">
         <v>1</v>
       </c>
     </row>
@@ -5516,7 +5553,7 @@
       <c r="A120" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120">
         <v>1</v>
       </c>
     </row>
@@ -5524,7 +5561,7 @@
       <c r="A121" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121">
         <v>1</v>
       </c>
     </row>
@@ -5532,7 +5569,7 @@
       <c r="A122" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122">
         <v>1</v>
       </c>
     </row>
@@ -5540,7 +5577,7 @@
       <c r="A123" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123">
         <v>1</v>
       </c>
     </row>
@@ -5548,7 +5585,7 @@
       <c r="A124" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124">
         <v>1</v>
       </c>
     </row>
@@ -5556,7 +5593,7 @@
       <c r="A125" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125">
         <v>1</v>
       </c>
     </row>
@@ -5564,7 +5601,7 @@
       <c r="A126" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126">
         <v>1</v>
       </c>
     </row>
@@ -5572,7 +5609,7 @@
       <c r="A127" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127">
         <v>1</v>
       </c>
     </row>
@@ -5580,7 +5617,7 @@
       <c r="A128" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128">
         <v>1</v>
       </c>
     </row>
@@ -5588,7 +5625,7 @@
       <c r="A129" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129">
         <v>1</v>
       </c>
     </row>
@@ -5596,7 +5633,7 @@
       <c r="A130" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130">
         <v>1</v>
       </c>
     </row>
@@ -5604,7 +5641,7 @@
       <c r="A131" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131">
         <v>1</v>
       </c>
     </row>
@@ -5612,7 +5649,7 @@
       <c r="A132" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132">
         <v>1</v>
       </c>
     </row>
@@ -5620,7 +5657,7 @@
       <c r="A133" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133">
         <v>1</v>
       </c>
     </row>
@@ -5628,7 +5665,7 @@
       <c r="A134" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134">
         <v>1</v>
       </c>
     </row>
@@ -5636,7 +5673,7 @@
       <c r="A135" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135">
         <v>1</v>
       </c>
     </row>
@@ -5644,7 +5681,7 @@
       <c r="A136" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136">
         <v>1</v>
       </c>
     </row>
@@ -5652,7 +5689,7 @@
       <c r="A137" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137">
         <v>1</v>
       </c>
     </row>
@@ -5660,7 +5697,7 @@
       <c r="A138" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138">
         <v>1</v>
       </c>
     </row>
@@ -5668,7 +5705,7 @@
       <c r="A139" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139">
         <v>1</v>
       </c>
     </row>
@@ -5676,7 +5713,7 @@
       <c r="A140" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140">
         <v>1</v>
       </c>
     </row>
@@ -5684,7 +5721,7 @@
       <c r="A141" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141">
         <v>1</v>
       </c>
     </row>
@@ -5692,7 +5729,7 @@
       <c r="A142" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142">
         <v>1</v>
       </c>
     </row>
@@ -5700,7 +5737,7 @@
       <c r="A143" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143">
         <v>1</v>
       </c>
     </row>
@@ -5708,7 +5745,7 @@
       <c r="A144" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144">
         <v>1</v>
       </c>
     </row>
@@ -5716,7 +5753,7 @@
       <c r="A145" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145">
         <v>1</v>
       </c>
     </row>
@@ -5724,7 +5761,7 @@
       <c r="A146" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146">
         <v>1</v>
       </c>
     </row>
@@ -5732,7 +5769,7 @@
       <c r="A147" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147">
         <v>1</v>
       </c>
     </row>
@@ -5740,7 +5777,7 @@
       <c r="A148" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148">
         <v>1</v>
       </c>
     </row>
@@ -5748,7 +5785,7 @@
       <c r="A149" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149">
         <v>1</v>
       </c>
     </row>
@@ -5756,7 +5793,7 @@
       <c r="A150" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150">
         <v>1</v>
       </c>
     </row>
@@ -5764,7 +5801,7 @@
       <c r="A151" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151">
         <v>1</v>
       </c>
     </row>
@@ -5772,7 +5809,7 @@
       <c r="A152" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152">
         <v>1</v>
       </c>
     </row>
@@ -5780,7 +5817,7 @@
       <c r="A153" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153">
         <v>1</v>
       </c>
     </row>
@@ -5788,7 +5825,7 @@
       <c r="A154" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154">
         <v>1</v>
       </c>
     </row>
@@ -5796,7 +5833,7 @@
       <c r="A155" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155">
         <v>1</v>
       </c>
     </row>
@@ -5804,7 +5841,7 @@
       <c r="A156" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156">
         <v>1</v>
       </c>
     </row>
@@ -5812,7 +5849,7 @@
       <c r="A157" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157">
         <v>1</v>
       </c>
     </row>
@@ -5820,7 +5857,7 @@
       <c r="A158" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158">
         <v>1</v>
       </c>
     </row>
@@ -5828,7 +5865,7 @@
       <c r="A159" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159">
         <v>1</v>
       </c>
     </row>
@@ -5836,7 +5873,7 @@
       <c r="A160" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160">
         <v>1</v>
       </c>
     </row>
@@ -5844,7 +5881,7 @@
       <c r="A161" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161">
         <v>1</v>
       </c>
     </row>
@@ -5852,7 +5889,7 @@
       <c r="A162" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162">
         <v>1</v>
       </c>
     </row>
@@ -5860,7 +5897,7 @@
       <c r="A163" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163">
         <v>1</v>
       </c>
     </row>
@@ -5868,7 +5905,7 @@
       <c r="A164" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164">
         <v>1</v>
       </c>
     </row>
@@ -5876,7 +5913,7 @@
       <c r="A165" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165">
         <v>1</v>
       </c>
     </row>
@@ -5884,7 +5921,7 @@
       <c r="A166" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166">
         <v>1</v>
       </c>
     </row>
@@ -5892,7 +5929,7 @@
       <c r="A167" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167">
         <v>1</v>
       </c>
     </row>
@@ -5900,7 +5937,7 @@
       <c r="A168" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168">
         <v>1</v>
       </c>
     </row>
@@ -5908,7 +5945,7 @@
       <c r="A169" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169">
         <v>1</v>
       </c>
     </row>
@@ -5916,7 +5953,7 @@
       <c r="A170" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170">
         <v>1</v>
       </c>
     </row>
@@ -5924,7 +5961,7 @@
       <c r="A171" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171">
         <v>1</v>
       </c>
     </row>
@@ -5932,7 +5969,7 @@
       <c r="A172" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172">
         <v>1</v>
       </c>
     </row>
@@ -5940,7 +5977,7 @@
       <c r="A173" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B173">
         <v>1</v>
       </c>
     </row>
@@ -5948,7 +5985,7 @@
       <c r="A174" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B174">
         <v>1</v>
       </c>
     </row>
@@ -5956,7 +5993,7 @@
       <c r="A175" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175">
         <v>1</v>
       </c>
     </row>
@@ -5964,7 +6001,7 @@
       <c r="A176" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B176">
         <v>1</v>
       </c>
     </row>
@@ -5972,7 +6009,7 @@
       <c r="A177" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177">
         <v>1</v>
       </c>
     </row>
@@ -5980,7 +6017,7 @@
       <c r="A178" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B178">
         <v>1</v>
       </c>
     </row>
@@ -5988,7 +6025,7 @@
       <c r="A179" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B179">
         <v>1</v>
       </c>
     </row>
@@ -5996,7 +6033,7 @@
       <c r="A180" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B180">
         <v>1</v>
       </c>
     </row>
@@ -6004,7 +6041,7 @@
       <c r="A181" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181">
         <v>1</v>
       </c>
     </row>
@@ -6012,7 +6049,7 @@
       <c r="A182" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B182">
         <v>1</v>
       </c>
     </row>
@@ -6020,7 +6057,7 @@
       <c r="A183" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B183">
         <v>1</v>
       </c>
     </row>
@@ -6028,7 +6065,7 @@
       <c r="A184" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B184">
         <v>1</v>
       </c>
     </row>
@@ -6036,7 +6073,7 @@
       <c r="A185" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185">
         <v>1</v>
       </c>
     </row>
@@ -6044,7 +6081,7 @@
       <c r="A186" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B186" s="3">
+      <c r="B186">
         <v>1</v>
       </c>
     </row>
@@ -6052,7 +6089,7 @@
       <c r="A187" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B187">
         <v>1</v>
       </c>
     </row>
@@ -6060,7 +6097,7 @@
       <c r="A188" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B188">
         <v>1</v>
       </c>
     </row>
@@ -6068,7 +6105,7 @@
       <c r="A189" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B189">
         <v>1</v>
       </c>
     </row>
@@ -6076,7 +6113,7 @@
       <c r="A190" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B190" s="3">
+      <c r="B190">
         <v>1</v>
       </c>
     </row>
@@ -6084,7 +6121,7 @@
       <c r="A191" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191">
         <v>1</v>
       </c>
     </row>
@@ -6092,7 +6129,7 @@
       <c r="A192" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B192">
         <v>1</v>
       </c>
     </row>
@@ -6100,7 +6137,7 @@
       <c r="A193" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B193">
         <v>1</v>
       </c>
     </row>
@@ -6108,7 +6145,7 @@
       <c r="A194" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B194" s="3">
+      <c r="B194">
         <v>1</v>
       </c>
     </row>
@@ -6116,7 +6153,7 @@
       <c r="A195" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B195">
         <v>1</v>
       </c>
     </row>
@@ -6124,7 +6161,7 @@
       <c r="A196" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B196" s="3">
+      <c r="B196">
         <v>1</v>
       </c>
     </row>
@@ -6132,7 +6169,7 @@
       <c r="A197" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B197">
         <v>1</v>
       </c>
     </row>
@@ -6140,7 +6177,7 @@
       <c r="A198" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B198" s="3">
+      <c r="B198">
         <v>1</v>
       </c>
     </row>
@@ -6148,7 +6185,7 @@
       <c r="A199" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B199">
         <v>1</v>
       </c>
     </row>
@@ -6156,7 +6193,7 @@
       <c r="A200" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B200">
         <v>1</v>
       </c>
     </row>
@@ -6164,7 +6201,7 @@
       <c r="A201" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B201">
         <v>1</v>
       </c>
     </row>
@@ -6172,7 +6209,7 @@
       <c r="A202" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B202" s="3">
+      <c r="B202">
         <v>1</v>
       </c>
     </row>
@@ -6180,7 +6217,7 @@
       <c r="A203" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B203" s="3">
+      <c r="B203">
         <v>1</v>
       </c>
     </row>
@@ -6188,7 +6225,7 @@
       <c r="A204" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B204" s="3">
+      <c r="B204">
         <v>1</v>
       </c>
     </row>
@@ -6196,7 +6233,7 @@
       <c r="A205" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B205" s="3">
+      <c r="B205">
         <v>1</v>
       </c>
     </row>
@@ -6204,7 +6241,7 @@
       <c r="A206" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B206" s="3">
+      <c r="B206">
         <v>1</v>
       </c>
     </row>
@@ -6212,7 +6249,7 @@
       <c r="A207" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B207" s="3">
+      <c r="B207">
         <v>1</v>
       </c>
     </row>
@@ -6220,7 +6257,7 @@
       <c r="A208" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B208" s="3">
+      <c r="B208">
         <v>1</v>
       </c>
     </row>
@@ -6228,7 +6265,7 @@
       <c r="A209" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="B209" s="3">
+      <c r="B209">
         <v>1</v>
       </c>
     </row>
@@ -6236,7 +6273,7 @@
       <c r="A210" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B210" s="3">
+      <c r="B210">
         <v>1</v>
       </c>
     </row>
@@ -6244,7 +6281,7 @@
       <c r="A211" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B211" s="3">
+      <c r="B211">
         <v>1</v>
       </c>
     </row>
@@ -6252,7 +6289,7 @@
       <c r="A212" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B212" s="3">
+      <c r="B212">
         <v>1</v>
       </c>
     </row>
@@ -6260,7 +6297,7 @@
       <c r="A213" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B213" s="3">
+      <c r="B213">
         <v>1</v>
       </c>
     </row>
@@ -6268,7 +6305,7 @@
       <c r="A214" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B214" s="3">
+      <c r="B214">
         <v>1</v>
       </c>
     </row>
@@ -6276,13 +6313,12 @@
       <c r="A215" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="B215" s="3"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="B216" s="3">
+      <c r="B216">
         <v>211</v>
       </c>
     </row>
@@ -6295,8 +6331,3644 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E212"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" t="s">
+        <v>160</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>171</v>
+      </c>
+      <c r="C54" t="s">
+        <v>172</v>
+      </c>
+      <c r="D54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" t="s">
+        <v>175</v>
+      </c>
+      <c r="D55" t="s">
+        <v>176</v>
+      </c>
+      <c r="E55" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>178</v>
+      </c>
+      <c r="C56" t="s">
+        <v>179</v>
+      </c>
+      <c r="D56" t="s">
+        <v>180</v>
+      </c>
+      <c r="E56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" t="s">
+        <v>183</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" t="s">
+        <v>186</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E59" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60" t="s">
+        <v>193</v>
+      </c>
+      <c r="D60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" t="s">
+        <v>196</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>198</v>
+      </c>
+      <c r="C62" t="s">
+        <v>199</v>
+      </c>
+      <c r="D62" t="s">
+        <v>200</v>
+      </c>
+      <c r="E62" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>202</v>
+      </c>
+      <c r="C63" t="s">
+        <v>203</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64" t="s">
+        <v>206</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>208</v>
+      </c>
+      <c r="C65" t="s">
+        <v>209</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" t="s">
+        <v>212</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>214</v>
+      </c>
+      <c r="C67" t="s">
+        <v>215</v>
+      </c>
+      <c r="D67" t="s">
+        <v>216</v>
+      </c>
+      <c r="E67" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>218</v>
+      </c>
+      <c r="C68" t="s">
+        <v>219</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>221</v>
+      </c>
+      <c r="C69" t="s">
+        <v>222</v>
+      </c>
+      <c r="D69" t="s">
+        <v>223</v>
+      </c>
+      <c r="E69" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>225</v>
+      </c>
+      <c r="C70" t="s">
+        <v>226</v>
+      </c>
+      <c r="D70" t="s">
+        <v>47</v>
+      </c>
+      <c r="E70" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>228</v>
+      </c>
+      <c r="C71" t="s">
+        <v>229</v>
+      </c>
+      <c r="D71" t="s">
+        <v>57</v>
+      </c>
+      <c r="E71" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>231</v>
+      </c>
+      <c r="C72" t="s">
+        <v>232</v>
+      </c>
+      <c r="D72" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>234</v>
+      </c>
+      <c r="C73" t="s">
+        <v>235</v>
+      </c>
+      <c r="D73" t="s">
+        <v>216</v>
+      </c>
+      <c r="E73" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>237</v>
+      </c>
+      <c r="C74" t="s">
+        <v>238</v>
+      </c>
+      <c r="D74" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" t="s">
+        <v>241</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>243</v>
+      </c>
+      <c r="C76" t="s">
+        <v>244</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>246</v>
+      </c>
+      <c r="C77" t="s">
+        <v>247</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>249</v>
+      </c>
+      <c r="C78" t="s">
+        <v>250</v>
+      </c>
+      <c r="D78" t="s">
+        <v>251</v>
+      </c>
+      <c r="E78" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>253</v>
+      </c>
+      <c r="C79" t="s">
+        <v>254</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>256</v>
+      </c>
+      <c r="C80" t="s">
+        <v>257</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>259</v>
+      </c>
+      <c r="C81" t="s">
+        <v>260</v>
+      </c>
+      <c r="D81" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>262</v>
+      </c>
+      <c r="C82" t="s">
+        <v>263</v>
+      </c>
+      <c r="D82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>265</v>
+      </c>
+      <c r="C83" t="s">
+        <v>266</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>268</v>
+      </c>
+      <c r="C84" t="s">
+        <v>269</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>271</v>
+      </c>
+      <c r="C85" t="s">
+        <v>272</v>
+      </c>
+      <c r="D85" t="s">
+        <v>57</v>
+      </c>
+      <c r="E85" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>274</v>
+      </c>
+      <c r="C86" t="s">
+        <v>275</v>
+      </c>
+      <c r="D86" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>277</v>
+      </c>
+      <c r="C87" t="s">
+        <v>278</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>280</v>
+      </c>
+      <c r="C88" t="s">
+        <v>281</v>
+      </c>
+      <c r="D88" t="s">
+        <v>216</v>
+      </c>
+      <c r="E88" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>283</v>
+      </c>
+      <c r="C89" t="s">
+        <v>284</v>
+      </c>
+      <c r="D89" t="s">
+        <v>285</v>
+      </c>
+      <c r="E89" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>287</v>
+      </c>
+      <c r="C90" t="s">
+        <v>288</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>290</v>
+      </c>
+      <c r="C91" t="s">
+        <v>291</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>293</v>
+      </c>
+      <c r="C92" t="s">
+        <v>294</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>296</v>
+      </c>
+      <c r="C93" t="s">
+        <v>297</v>
+      </c>
+      <c r="D93" t="s">
+        <v>298</v>
+      </c>
+      <c r="E93" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>300</v>
+      </c>
+      <c r="C94" t="s">
+        <v>301</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>303</v>
+      </c>
+      <c r="C95" t="s">
+        <v>304</v>
+      </c>
+      <c r="D95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>306</v>
+      </c>
+      <c r="C96" t="s">
+        <v>307</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>309</v>
+      </c>
+      <c r="C97" t="s">
+        <v>310</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>312</v>
+      </c>
+      <c r="C98" t="s">
+        <v>313</v>
+      </c>
+      <c r="D98" t="s">
+        <v>190</v>
+      </c>
+      <c r="E98" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>315</v>
+      </c>
+      <c r="C99" t="s">
+        <v>316</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>318</v>
+      </c>
+      <c r="C100" t="s">
+        <v>319</v>
+      </c>
+      <c r="D100" t="s">
+        <v>320</v>
+      </c>
+      <c r="E100" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>322</v>
+      </c>
+      <c r="C101" t="s">
+        <v>323</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>325</v>
+      </c>
+      <c r="C102" t="s">
+        <v>326</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>328</v>
+      </c>
+      <c r="C103" t="s">
+        <v>329</v>
+      </c>
+      <c r="D103" t="s">
+        <v>57</v>
+      </c>
+      <c r="E103" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="B104" t="s">
+        <v>331</v>
+      </c>
+      <c r="C104" t="s">
+        <v>332</v>
+      </c>
+      <c r="D104" t="s">
+        <v>22</v>
+      </c>
+      <c r="E104" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105" t="s">
+        <v>334</v>
+      </c>
+      <c r="C105" t="s">
+        <v>335</v>
+      </c>
+      <c r="D105" t="s">
+        <v>22</v>
+      </c>
+      <c r="E105" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>337</v>
+      </c>
+      <c r="C106" t="s">
+        <v>338</v>
+      </c>
+      <c r="D106" t="s">
+        <v>216</v>
+      </c>
+      <c r="E106" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>340</v>
+      </c>
+      <c r="C107" t="s">
+        <v>341</v>
+      </c>
+      <c r="D107" t="s">
+        <v>216</v>
+      </c>
+      <c r="E107" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>108</v>
+      </c>
+      <c r="B108" t="s">
+        <v>343</v>
+      </c>
+      <c r="C108" t="s">
+        <v>344</v>
+      </c>
+      <c r="D108" t="s">
+        <v>216</v>
+      </c>
+      <c r="E108" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>109</v>
+      </c>
+      <c r="B109" t="s">
+        <v>346</v>
+      </c>
+      <c r="C109" t="s">
+        <v>347</v>
+      </c>
+      <c r="D109" t="s">
+        <v>216</v>
+      </c>
+      <c r="E109" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>349</v>
+      </c>
+      <c r="C110" t="s">
+        <v>350</v>
+      </c>
+      <c r="D110" t="s">
+        <v>216</v>
+      </c>
+      <c r="E110" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>111</v>
+      </c>
+      <c r="B111" t="s">
+        <v>352</v>
+      </c>
+      <c r="C111" t="s">
+        <v>353</v>
+      </c>
+      <c r="D111" t="s">
+        <v>216</v>
+      </c>
+      <c r="E111" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>355</v>
+      </c>
+      <c r="C112" t="s">
+        <v>356</v>
+      </c>
+      <c r="D112" t="s">
+        <v>216</v>
+      </c>
+      <c r="E112" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>113</v>
+      </c>
+      <c r="B113" t="s">
+        <v>358</v>
+      </c>
+      <c r="C113" t="s">
+        <v>359</v>
+      </c>
+      <c r="D113" t="s">
+        <v>216</v>
+      </c>
+      <c r="E113" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>114</v>
+      </c>
+      <c r="B114" t="s">
+        <v>361</v>
+      </c>
+      <c r="C114" t="s">
+        <v>362</v>
+      </c>
+      <c r="D114" t="s">
+        <v>216</v>
+      </c>
+      <c r="E114" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>115</v>
+      </c>
+      <c r="B115" t="s">
+        <v>364</v>
+      </c>
+      <c r="C115" t="s">
+        <v>365</v>
+      </c>
+      <c r="D115" t="s">
+        <v>216</v>
+      </c>
+      <c r="E115" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>116</v>
+      </c>
+      <c r="B116" t="s">
+        <v>367</v>
+      </c>
+      <c r="C116" t="s">
+        <v>368</v>
+      </c>
+      <c r="D116" t="s">
+        <v>216</v>
+      </c>
+      <c r="E116" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>370</v>
+      </c>
+      <c r="C117" t="s">
+        <v>371</v>
+      </c>
+      <c r="D117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>118</v>
+      </c>
+      <c r="B118" t="s">
+        <v>373</v>
+      </c>
+      <c r="C118" t="s">
+        <v>374</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>119</v>
+      </c>
+      <c r="B119" t="s">
+        <v>376</v>
+      </c>
+      <c r="C119" t="s">
+        <v>377</v>
+      </c>
+      <c r="D119" t="s">
+        <v>216</v>
+      </c>
+      <c r="E119" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>120</v>
+      </c>
+      <c r="B120" t="s">
+        <v>379</v>
+      </c>
+      <c r="C120" t="s">
+        <v>380</v>
+      </c>
+      <c r="D120" t="s">
+        <v>216</v>
+      </c>
+      <c r="E120" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>121</v>
+      </c>
+      <c r="B121" t="s">
+        <v>382</v>
+      </c>
+      <c r="C121" t="s">
+        <v>383</v>
+      </c>
+      <c r="D121" t="s">
+        <v>216</v>
+      </c>
+      <c r="E121" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>385</v>
+      </c>
+      <c r="C122" t="s">
+        <v>386</v>
+      </c>
+      <c r="D122" t="s">
+        <v>216</v>
+      </c>
+      <c r="E122" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>123</v>
+      </c>
+      <c r="B123" t="s">
+        <v>388</v>
+      </c>
+      <c r="C123" t="s">
+        <v>389</v>
+      </c>
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>124</v>
+      </c>
+      <c r="B124" t="s">
+        <v>391</v>
+      </c>
+      <c r="C124" t="s">
+        <v>392</v>
+      </c>
+      <c r="D124" t="s">
+        <v>22</v>
+      </c>
+      <c r="E124" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>125</v>
+      </c>
+      <c r="B125" t="s">
+        <v>394</v>
+      </c>
+      <c r="C125" t="s">
+        <v>395</v>
+      </c>
+      <c r="D125" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>126</v>
+      </c>
+      <c r="B126" t="s">
+        <v>397</v>
+      </c>
+      <c r="C126" t="s">
+        <v>398</v>
+      </c>
+      <c r="D126" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>127</v>
+      </c>
+      <c r="B127" t="s">
+        <v>400</v>
+      </c>
+      <c r="C127" t="s">
+        <v>401</v>
+      </c>
+      <c r="D127" t="s">
+        <v>22</v>
+      </c>
+      <c r="E127" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>128</v>
+      </c>
+      <c r="B128" t="s">
+        <v>403</v>
+      </c>
+      <c r="C128" t="s">
+        <v>404</v>
+      </c>
+      <c r="D128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>129</v>
+      </c>
+      <c r="B129" t="s">
+        <v>406</v>
+      </c>
+      <c r="C129" t="s">
+        <v>407</v>
+      </c>
+      <c r="D129" t="s">
+        <v>216</v>
+      </c>
+      <c r="E129" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>130</v>
+      </c>
+      <c r="B130" t="s">
+        <v>409</v>
+      </c>
+      <c r="C130" t="s">
+        <v>410</v>
+      </c>
+      <c r="D130" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>131</v>
+      </c>
+      <c r="B131" t="s">
+        <v>412</v>
+      </c>
+      <c r="C131" t="s">
+        <v>413</v>
+      </c>
+      <c r="D131" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>132</v>
+      </c>
+      <c r="B132" t="s">
+        <v>415</v>
+      </c>
+      <c r="C132" t="s">
+        <v>416</v>
+      </c>
+      <c r="D132" t="s">
+        <v>22</v>
+      </c>
+      <c r="E132" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>133</v>
+      </c>
+      <c r="B133" t="s">
+        <v>418</v>
+      </c>
+      <c r="C133" t="s">
+        <v>419</v>
+      </c>
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>134</v>
+      </c>
+      <c r="B134" t="s">
+        <v>421</v>
+      </c>
+      <c r="C134" t="s">
+        <v>422</v>
+      </c>
+      <c r="D134" t="s">
+        <v>216</v>
+      </c>
+      <c r="E134" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>135</v>
+      </c>
+      <c r="B135" t="s">
+        <v>424</v>
+      </c>
+      <c r="C135" t="s">
+        <v>425</v>
+      </c>
+      <c r="D135" t="s">
+        <v>216</v>
+      </c>
+      <c r="E135" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>136</v>
+      </c>
+      <c r="B136" t="s">
+        <v>427</v>
+      </c>
+      <c r="C136" t="s">
+        <v>428</v>
+      </c>
+      <c r="D136" t="s">
+        <v>216</v>
+      </c>
+      <c r="E136" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>137</v>
+      </c>
+      <c r="B137" t="s">
+        <v>430</v>
+      </c>
+      <c r="C137" t="s">
+        <v>431</v>
+      </c>
+      <c r="D137" t="s">
+        <v>22</v>
+      </c>
+      <c r="E137" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>138</v>
+      </c>
+      <c r="B138" t="s">
+        <v>433</v>
+      </c>
+      <c r="C138" t="s">
+        <v>434</v>
+      </c>
+      <c r="D138" t="s">
+        <v>216</v>
+      </c>
+      <c r="E138" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>139</v>
+      </c>
+      <c r="B139" t="s">
+        <v>436</v>
+      </c>
+      <c r="C139" t="s">
+        <v>437</v>
+      </c>
+      <c r="D139" t="s">
+        <v>216</v>
+      </c>
+      <c r="E139" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>140</v>
+      </c>
+      <c r="B140" t="s">
+        <v>439</v>
+      </c>
+      <c r="C140" t="s">
+        <v>440</v>
+      </c>
+      <c r="D140" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>141</v>
+      </c>
+      <c r="B141" t="s">
+        <v>442</v>
+      </c>
+      <c r="C141" t="s">
+        <v>443</v>
+      </c>
+      <c r="D141" t="s">
+        <v>18</v>
+      </c>
+      <c r="E141" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>142</v>
+      </c>
+      <c r="B142" t="s">
+        <v>445</v>
+      </c>
+      <c r="C142" t="s">
+        <v>446</v>
+      </c>
+      <c r="D142" t="s">
+        <v>216</v>
+      </c>
+      <c r="E142" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>143</v>
+      </c>
+      <c r="B143" t="s">
+        <v>448</v>
+      </c>
+      <c r="C143" t="s">
+        <v>449</v>
+      </c>
+      <c r="D143" t="s">
+        <v>216</v>
+      </c>
+      <c r="E143" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>144</v>
+      </c>
+      <c r="B144" t="s">
+        <v>451</v>
+      </c>
+      <c r="C144" t="s">
+        <v>452</v>
+      </c>
+      <c r="D144" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>145</v>
+      </c>
+      <c r="B145" t="s">
+        <v>454</v>
+      </c>
+      <c r="C145" t="s">
+        <v>455</v>
+      </c>
+      <c r="D145" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>146</v>
+      </c>
+      <c r="B146" t="s">
+        <v>457</v>
+      </c>
+      <c r="C146" t="s">
+        <v>458</v>
+      </c>
+      <c r="D146" t="s">
+        <v>459</v>
+      </c>
+      <c r="E146" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147" t="s">
+        <v>461</v>
+      </c>
+      <c r="C147" t="s">
+        <v>462</v>
+      </c>
+      <c r="D147" t="s">
+        <v>11</v>
+      </c>
+      <c r="E147" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>148</v>
+      </c>
+      <c r="B148" t="s">
+        <v>464</v>
+      </c>
+      <c r="C148" t="s">
+        <v>465</v>
+      </c>
+      <c r="D148" t="s">
+        <v>7</v>
+      </c>
+      <c r="E148" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>149</v>
+      </c>
+      <c r="B149" t="s">
+        <v>467</v>
+      </c>
+      <c r="C149" t="s">
+        <v>468</v>
+      </c>
+      <c r="D149" t="s">
+        <v>216</v>
+      </c>
+      <c r="E149" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>150</v>
+      </c>
+      <c r="B150" t="s">
+        <v>470</v>
+      </c>
+      <c r="C150" t="s">
+        <v>471</v>
+      </c>
+      <c r="D150" t="s">
+        <v>216</v>
+      </c>
+      <c r="E150" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>151</v>
+      </c>
+      <c r="B151" t="s">
+        <v>473</v>
+      </c>
+      <c r="C151" t="s">
+        <v>474</v>
+      </c>
+      <c r="D151" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>152</v>
+      </c>
+      <c r="B152" t="s">
+        <v>476</v>
+      </c>
+      <c r="C152" t="s">
+        <v>477</v>
+      </c>
+      <c r="D152" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>153</v>
+      </c>
+      <c r="B153" t="s">
+        <v>479</v>
+      </c>
+      <c r="C153" t="s">
+        <v>480</v>
+      </c>
+      <c r="D153" t="s">
+        <v>22</v>
+      </c>
+      <c r="E153" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>154</v>
+      </c>
+      <c r="B154" t="s">
+        <v>482</v>
+      </c>
+      <c r="C154" t="s">
+        <v>483</v>
+      </c>
+      <c r="D154" t="s">
+        <v>18</v>
+      </c>
+      <c r="E154" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>155</v>
+      </c>
+      <c r="B155" t="s">
+        <v>485</v>
+      </c>
+      <c r="C155" t="s">
+        <v>486</v>
+      </c>
+      <c r="D155" t="s">
+        <v>216</v>
+      </c>
+      <c r="E155" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>156</v>
+      </c>
+      <c r="B156" t="s">
+        <v>488</v>
+      </c>
+      <c r="C156" t="s">
+        <v>489</v>
+      </c>
+      <c r="D156" t="s">
+        <v>216</v>
+      </c>
+      <c r="E156" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>157</v>
+      </c>
+      <c r="B157" t="s">
+        <v>491</v>
+      </c>
+      <c r="C157" t="s">
+        <v>492</v>
+      </c>
+      <c r="D157" t="s">
+        <v>216</v>
+      </c>
+      <c r="E157" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>158</v>
+      </c>
+      <c r="B158" t="s">
+        <v>494</v>
+      </c>
+      <c r="C158" t="s">
+        <v>495</v>
+      </c>
+      <c r="D158" t="s">
+        <v>216</v>
+      </c>
+      <c r="E158" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>159</v>
+      </c>
+      <c r="B159" t="s">
+        <v>497</v>
+      </c>
+      <c r="C159" t="s">
+        <v>498</v>
+      </c>
+      <c r="D159" t="s">
+        <v>216</v>
+      </c>
+      <c r="E159" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>160</v>
+      </c>
+      <c r="B160" t="s">
+        <v>500</v>
+      </c>
+      <c r="C160" t="s">
+        <v>501</v>
+      </c>
+      <c r="D160" t="s">
+        <v>216</v>
+      </c>
+      <c r="E160" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>161</v>
+      </c>
+      <c r="B161" t="s">
+        <v>503</v>
+      </c>
+      <c r="C161" t="s">
+        <v>504</v>
+      </c>
+      <c r="D161" t="s">
+        <v>216</v>
+      </c>
+      <c r="E161" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>162</v>
+      </c>
+      <c r="B162" t="s">
+        <v>506</v>
+      </c>
+      <c r="C162" t="s">
+        <v>507</v>
+      </c>
+      <c r="D162" t="s">
+        <v>216</v>
+      </c>
+      <c r="E162" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>163</v>
+      </c>
+      <c r="B163" t="s">
+        <v>509</v>
+      </c>
+      <c r="C163" t="s">
+        <v>510</v>
+      </c>
+      <c r="D163" t="s">
+        <v>22</v>
+      </c>
+      <c r="E163" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>164</v>
+      </c>
+      <c r="B164" t="s">
+        <v>512</v>
+      </c>
+      <c r="C164" t="s">
+        <v>513</v>
+      </c>
+      <c r="D164" t="s">
+        <v>514</v>
+      </c>
+      <c r="E164" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>167</v>
+      </c>
+      <c r="B165" t="s">
+        <v>516</v>
+      </c>
+      <c r="C165" t="s">
+        <v>517</v>
+      </c>
+      <c r="D165" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>166</v>
+      </c>
+      <c r="B166" t="s">
+        <v>518</v>
+      </c>
+      <c r="C166" t="s">
+        <v>519</v>
+      </c>
+      <c r="D166" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>168</v>
+      </c>
+      <c r="B167" t="s">
+        <v>521</v>
+      </c>
+      <c r="C167" t="s">
+        <v>522</v>
+      </c>
+      <c r="D167" t="s">
+        <v>7</v>
+      </c>
+      <c r="E167" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>169</v>
+      </c>
+      <c r="B168" t="s">
+        <v>523</v>
+      </c>
+      <c r="C168" t="s">
+        <v>524</v>
+      </c>
+      <c r="D168" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>170</v>
+      </c>
+      <c r="B169" t="s">
+        <v>525</v>
+      </c>
+      <c r="C169" t="s">
+        <v>526</v>
+      </c>
+      <c r="D169" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>171</v>
+      </c>
+      <c r="B170" t="s">
+        <v>527</v>
+      </c>
+      <c r="C170" t="s">
+        <v>528</v>
+      </c>
+      <c r="D170" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>172</v>
+      </c>
+      <c r="B171" t="s">
+        <v>529</v>
+      </c>
+      <c r="C171" t="s">
+        <v>530</v>
+      </c>
+      <c r="D171" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>173</v>
+      </c>
+      <c r="B172" t="s">
+        <v>531</v>
+      </c>
+      <c r="C172" t="s">
+        <v>532</v>
+      </c>
+      <c r="D172" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>174</v>
+      </c>
+      <c r="B173" t="s">
+        <v>533</v>
+      </c>
+      <c r="C173" t="s">
+        <v>534</v>
+      </c>
+      <c r="D173" t="s">
+        <v>22</v>
+      </c>
+      <c r="E173" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>175</v>
+      </c>
+      <c r="B174" t="s">
+        <v>535</v>
+      </c>
+      <c r="C174" t="s">
+        <v>536</v>
+      </c>
+      <c r="D174" t="s">
+        <v>22</v>
+      </c>
+      <c r="E174" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>176</v>
+      </c>
+      <c r="B175" t="s">
+        <v>537</v>
+      </c>
+      <c r="C175" t="s">
+        <v>538</v>
+      </c>
+      <c r="D175" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>177</v>
+      </c>
+      <c r="B176" t="s">
+        <v>539</v>
+      </c>
+      <c r="C176" t="s">
+        <v>540</v>
+      </c>
+      <c r="D176" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>178</v>
+      </c>
+      <c r="B177" t="s">
+        <v>541</v>
+      </c>
+      <c r="C177" t="s">
+        <v>542</v>
+      </c>
+      <c r="D177" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>179</v>
+      </c>
+      <c r="B178" t="s">
+        <v>543</v>
+      </c>
+      <c r="C178" t="s">
+        <v>544</v>
+      </c>
+      <c r="D178" t="s">
+        <v>22</v>
+      </c>
+      <c r="E178" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>180</v>
+      </c>
+      <c r="B179" t="s">
+        <v>545</v>
+      </c>
+      <c r="C179" t="s">
+        <v>546</v>
+      </c>
+      <c r="D179" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>181</v>
+      </c>
+      <c r="B180" t="s">
+        <v>547</v>
+      </c>
+      <c r="C180" t="s">
+        <v>548</v>
+      </c>
+      <c r="D180" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>182</v>
+      </c>
+      <c r="B181" t="s">
+        <v>549</v>
+      </c>
+      <c r="C181" t="s">
+        <v>550</v>
+      </c>
+      <c r="D181" t="s">
+        <v>7</v>
+      </c>
+      <c r="E181" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>183</v>
+      </c>
+      <c r="B182" t="s">
+        <v>551</v>
+      </c>
+      <c r="C182" t="s">
+        <v>552</v>
+      </c>
+      <c r="D182" t="s">
+        <v>7</v>
+      </c>
+      <c r="E182" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>184</v>
+      </c>
+      <c r="B183" t="s">
+        <v>553</v>
+      </c>
+      <c r="C183" t="s">
+        <v>554</v>
+      </c>
+      <c r="D183" t="s">
+        <v>285</v>
+      </c>
+      <c r="E183" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>185</v>
+      </c>
+      <c r="B184" t="s">
+        <v>555</v>
+      </c>
+      <c r="C184" t="s">
+        <v>556</v>
+      </c>
+      <c r="D184" t="s">
+        <v>285</v>
+      </c>
+      <c r="E184" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>186</v>
+      </c>
+      <c r="B185" t="s">
+        <v>557</v>
+      </c>
+      <c r="C185" t="s">
+        <v>558</v>
+      </c>
+      <c r="D185" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>187</v>
+      </c>
+      <c r="B186" t="s">
+        <v>559</v>
+      </c>
+      <c r="C186" t="s">
+        <v>560</v>
+      </c>
+      <c r="D186" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>188</v>
+      </c>
+      <c r="B187" t="s">
+        <v>562</v>
+      </c>
+      <c r="C187" t="s">
+        <v>563</v>
+      </c>
+      <c r="D187" t="s">
+        <v>7</v>
+      </c>
+      <c r="E187" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>189</v>
+      </c>
+      <c r="B188" t="s">
+        <v>564</v>
+      </c>
+      <c r="C188" t="s">
+        <v>565</v>
+      </c>
+      <c r="D188" t="s">
+        <v>216</v>
+      </c>
+      <c r="E188" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>190</v>
+      </c>
+      <c r="B189" t="s">
+        <v>566</v>
+      </c>
+      <c r="C189" t="s">
+        <v>567</v>
+      </c>
+      <c r="D189" t="s">
+        <v>216</v>
+      </c>
+      <c r="E189" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>191</v>
+      </c>
+      <c r="B190" t="s">
+        <v>568</v>
+      </c>
+      <c r="C190" t="s">
+        <v>569</v>
+      </c>
+      <c r="D190" t="s">
+        <v>7</v>
+      </c>
+      <c r="E190" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>192</v>
+      </c>
+      <c r="B191" t="s">
+        <v>570</v>
+      </c>
+      <c r="C191" t="s">
+        <v>571</v>
+      </c>
+      <c r="D191" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>193</v>
+      </c>
+      <c r="B192" t="s">
+        <v>572</v>
+      </c>
+      <c r="C192" t="s">
+        <v>573</v>
+      </c>
+      <c r="D192" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>194</v>
+      </c>
+      <c r="B193" t="s">
+        <v>574</v>
+      </c>
+      <c r="C193" t="s">
+        <v>575</v>
+      </c>
+      <c r="D193" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>195</v>
+      </c>
+      <c r="B194" t="s">
+        <v>577</v>
+      </c>
+      <c r="C194" t="s">
+        <v>578</v>
+      </c>
+      <c r="D194" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>196</v>
+      </c>
+      <c r="B195" t="s">
+        <v>579</v>
+      </c>
+      <c r="C195" t="s">
+        <v>580</v>
+      </c>
+      <c r="D195" t="s">
+        <v>18</v>
+      </c>
+      <c r="E195" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>197</v>
+      </c>
+      <c r="B196" t="s">
+        <v>581</v>
+      </c>
+      <c r="C196" t="s">
+        <v>582</v>
+      </c>
+      <c r="D196" t="s">
+        <v>7</v>
+      </c>
+      <c r="E196" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>198</v>
+      </c>
+      <c r="B197" t="s">
+        <v>583</v>
+      </c>
+      <c r="C197" t="s">
+        <v>584</v>
+      </c>
+      <c r="D197" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>199</v>
+      </c>
+      <c r="B198" t="s">
+        <v>585</v>
+      </c>
+      <c r="C198" t="s">
+        <v>586</v>
+      </c>
+      <c r="D198" t="s">
+        <v>7</v>
+      </c>
+      <c r="E198" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>200</v>
+      </c>
+      <c r="B199" t="s">
+        <v>587</v>
+      </c>
+      <c r="C199" t="s">
+        <v>588</v>
+      </c>
+      <c r="D199" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>201</v>
+      </c>
+      <c r="B200" t="s">
+        <v>589</v>
+      </c>
+      <c r="C200" t="s">
+        <v>590</v>
+      </c>
+      <c r="D200" t="s">
+        <v>7</v>
+      </c>
+      <c r="E200" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>202</v>
+      </c>
+      <c r="B201" t="s">
+        <v>591</v>
+      </c>
+      <c r="C201" t="s">
+        <v>592</v>
+      </c>
+      <c r="D201" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>203</v>
+      </c>
+      <c r="B202" t="s">
+        <v>593</v>
+      </c>
+      <c r="C202" t="s">
+        <v>594</v>
+      </c>
+      <c r="D202" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>204</v>
+      </c>
+      <c r="B203" t="s">
+        <v>595</v>
+      </c>
+      <c r="C203" t="s">
+        <v>596</v>
+      </c>
+      <c r="D203" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>205</v>
+      </c>
+      <c r="B204" t="s">
+        <v>597</v>
+      </c>
+      <c r="C204" t="s">
+        <v>598</v>
+      </c>
+      <c r="D204" t="s">
+        <v>599</v>
+      </c>
+      <c r="E204" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>206</v>
+      </c>
+      <c r="B205" t="s">
+        <v>601</v>
+      </c>
+      <c r="C205" t="s">
+        <v>602</v>
+      </c>
+      <c r="D205" t="s">
+        <v>51</v>
+      </c>
+      <c r="E205" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>207</v>
+      </c>
+      <c r="B206" t="s">
+        <v>604</v>
+      </c>
+      <c r="C206" t="s">
+        <v>605</v>
+      </c>
+      <c r="D206" t="s">
+        <v>599</v>
+      </c>
+      <c r="E206" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>208</v>
+      </c>
+      <c r="B207" t="s">
+        <v>607</v>
+      </c>
+      <c r="C207" t="s">
+        <v>608</v>
+      </c>
+      <c r="D207" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>209</v>
+      </c>
+      <c r="B208" t="s">
+        <v>610</v>
+      </c>
+      <c r="C208" t="s">
+        <v>611</v>
+      </c>
+      <c r="D208" t="s">
+        <v>7</v>
+      </c>
+      <c r="E208" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>210</v>
+      </c>
+      <c r="B209" t="s">
+        <v>613</v>
+      </c>
+      <c r="C209" t="s">
+        <v>614</v>
+      </c>
+      <c r="D209" t="s">
+        <v>216</v>
+      </c>
+      <c r="E209" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>211</v>
+      </c>
+      <c r="B210" t="s">
+        <v>616</v>
+      </c>
+      <c r="C210" t="s">
+        <v>617</v>
+      </c>
+      <c r="D210" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>213</v>
+      </c>
+      <c r="B211" t="s">
+        <v>619</v>
+      </c>
+      <c r="C211" t="s">
+        <v>620</v>
+      </c>
+      <c r="D211" t="s">
+        <v>22</v>
+      </c>
+      <c r="E211" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>214</v>
+      </c>
+      <c r="B212" t="s">
+        <v>622</v>
+      </c>
+      <c r="C212" t="s">
+        <v>623</v>
+      </c>
+      <c r="D212" t="s">
+        <v>18</v>
+      </c>
+      <c r="E212" t="s">
+        <v>624</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:E212">
+    <cfRule type="containsBlanks" dxfId="6" priority="1">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538B7F14-8D52-4835-9079-69577681101E}">
+  <dimension ref="A1:E180"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9098,830 +12770,291 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C165" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D165" t="s">
         <v>7</v>
       </c>
       <c r="E165" t="s">
-        <v>279</v>
+        <v>520</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="C166" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="D166" t="s">
         <v>7</v>
       </c>
       <c r="E166" t="s">
-        <v>520</v>
+        <v>110</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B167" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="C167" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="D167" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E167" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B168" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="C168" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="D168" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E168" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B169" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="C169" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="D169" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E169" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="B170" t="s">
-        <v>527</v>
+        <v>559</v>
       </c>
       <c r="C170" t="s">
-        <v>528</v>
+        <v>560</v>
       </c>
       <c r="D170" t="s">
         <v>7</v>
       </c>
       <c r="E170" t="s">
-        <v>279</v>
+        <v>561</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="B171" t="s">
-        <v>529</v>
+        <v>574</v>
       </c>
       <c r="C171" t="s">
-        <v>530</v>
+        <v>575</v>
       </c>
       <c r="D171" t="s">
         <v>7</v>
       </c>
       <c r="E171" t="s">
-        <v>110</v>
+        <v>576</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="B172" t="s">
-        <v>531</v>
+        <v>597</v>
       </c>
       <c r="C172" t="s">
-        <v>532</v>
+        <v>598</v>
       </c>
       <c r="D172" t="s">
-        <v>7</v>
+        <v>599</v>
       </c>
       <c r="E172" t="s">
-        <v>110</v>
+        <v>600</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="B173" t="s">
-        <v>533</v>
+        <v>601</v>
       </c>
       <c r="C173" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="D173" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E173" t="s">
-        <v>276</v>
+        <v>603</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="B174" t="s">
-        <v>535</v>
+        <v>604</v>
       </c>
       <c r="C174" t="s">
-        <v>536</v>
+        <v>605</v>
       </c>
       <c r="D174" t="s">
-        <v>22</v>
+        <v>599</v>
       </c>
       <c r="E174" t="s">
-        <v>276</v>
+        <v>606</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="B175" t="s">
-        <v>537</v>
+        <v>607</v>
       </c>
       <c r="C175" t="s">
-        <v>538</v>
+        <v>608</v>
       </c>
       <c r="D175" t="s">
         <v>7</v>
       </c>
       <c r="E175" t="s">
-        <v>110</v>
+        <v>609</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="B176" t="s">
-        <v>539</v>
+        <v>610</v>
       </c>
       <c r="C176" t="s">
-        <v>540</v>
+        <v>611</v>
       </c>
       <c r="D176" t="s">
         <v>7</v>
       </c>
       <c r="E176" t="s">
-        <v>110</v>
+        <v>612</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="B177" t="s">
-        <v>541</v>
+        <v>613</v>
       </c>
       <c r="C177" t="s">
-        <v>542</v>
+        <v>614</v>
       </c>
       <c r="D177" t="s">
-        <v>7</v>
+        <v>216</v>
       </c>
       <c r="E177" t="s">
-        <v>279</v>
+        <v>615</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="B178" t="s">
-        <v>543</v>
+        <v>616</v>
       </c>
       <c r="C178" t="s">
-        <v>544</v>
+        <v>617</v>
       </c>
       <c r="D178" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E178" t="s">
-        <v>276</v>
+        <v>618</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="B179" t="s">
-        <v>545</v>
+        <v>619</v>
       </c>
       <c r="C179" t="s">
-        <v>546</v>
+        <v>620</v>
       </c>
       <c r="D179" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E179" t="s">
-        <v>110</v>
+        <v>621</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="B180" t="s">
-        <v>547</v>
+        <v>622</v>
       </c>
       <c r="C180" t="s">
-        <v>548</v>
+        <v>623</v>
       </c>
       <c r="D180" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E180" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>182</v>
-      </c>
-      <c r="B181" t="s">
-        <v>549</v>
-      </c>
-      <c r="C181" t="s">
-        <v>550</v>
-      </c>
-      <c r="D181" t="s">
-        <v>7</v>
-      </c>
-      <c r="E181" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>183</v>
-      </c>
-      <c r="B182" t="s">
-        <v>551</v>
-      </c>
-      <c r="C182" t="s">
-        <v>552</v>
-      </c>
-      <c r="D182" t="s">
-        <v>7</v>
-      </c>
-      <c r="E182" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>184</v>
-      </c>
-      <c r="B183" t="s">
-        <v>553</v>
-      </c>
-      <c r="C183" t="s">
-        <v>554</v>
-      </c>
-      <c r="D183" t="s">
-        <v>285</v>
-      </c>
-      <c r="E183" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>185</v>
-      </c>
-      <c r="B184" t="s">
-        <v>555</v>
-      </c>
-      <c r="C184" t="s">
-        <v>556</v>
-      </c>
-      <c r="D184" t="s">
-        <v>285</v>
-      </c>
-      <c r="E184" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>186</v>
-      </c>
-      <c r="B185" t="s">
-        <v>557</v>
-      </c>
-      <c r="C185" t="s">
-        <v>558</v>
-      </c>
-      <c r="D185" t="s">
-        <v>7</v>
-      </c>
-      <c r="E185" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>187</v>
-      </c>
-      <c r="B186" t="s">
-        <v>559</v>
-      </c>
-      <c r="C186" t="s">
-        <v>560</v>
-      </c>
-      <c r="D186" t="s">
-        <v>7</v>
-      </c>
-      <c r="E186" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>188</v>
-      </c>
-      <c r="B187" t="s">
-        <v>562</v>
-      </c>
-      <c r="C187" t="s">
-        <v>563</v>
-      </c>
-      <c r="D187" t="s">
-        <v>7</v>
-      </c>
-      <c r="E187" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>189</v>
-      </c>
-      <c r="B188" t="s">
-        <v>564</v>
-      </c>
-      <c r="C188" t="s">
-        <v>565</v>
-      </c>
-      <c r="D188" t="s">
-        <v>216</v>
-      </c>
-      <c r="E188" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>190</v>
-      </c>
-      <c r="B189" t="s">
-        <v>566</v>
-      </c>
-      <c r="C189" t="s">
-        <v>567</v>
-      </c>
-      <c r="D189" t="s">
-        <v>216</v>
-      </c>
-      <c r="E189" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>191</v>
-      </c>
-      <c r="B190" t="s">
-        <v>568</v>
-      </c>
-      <c r="C190" t="s">
-        <v>569</v>
-      </c>
-      <c r="D190" t="s">
-        <v>7</v>
-      </c>
-      <c r="E190" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>192</v>
-      </c>
-      <c r="B191" t="s">
-        <v>570</v>
-      </c>
-      <c r="C191" t="s">
-        <v>571</v>
-      </c>
-      <c r="D191" t="s">
-        <v>7</v>
-      </c>
-      <c r="E191" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>193</v>
-      </c>
-      <c r="B192" t="s">
-        <v>572</v>
-      </c>
-      <c r="C192" t="s">
-        <v>573</v>
-      </c>
-      <c r="D192" t="s">
-        <v>7</v>
-      </c>
-      <c r="E192" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>194</v>
-      </c>
-      <c r="B193" t="s">
-        <v>574</v>
-      </c>
-      <c r="C193" t="s">
-        <v>575</v>
-      </c>
-      <c r="D193" t="s">
-        <v>7</v>
-      </c>
-      <c r="E193" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>195</v>
-      </c>
-      <c r="B194" t="s">
-        <v>577</v>
-      </c>
-      <c r="C194" t="s">
-        <v>578</v>
-      </c>
-      <c r="D194" t="s">
-        <v>7</v>
-      </c>
-      <c r="E194" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>196</v>
-      </c>
-      <c r="B195" t="s">
-        <v>579</v>
-      </c>
-      <c r="C195" t="s">
-        <v>580</v>
-      </c>
-      <c r="D195" t="s">
-        <v>18</v>
-      </c>
-      <c r="E195" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>197</v>
-      </c>
-      <c r="B196" t="s">
-        <v>581</v>
-      </c>
-      <c r="C196" t="s">
-        <v>582</v>
-      </c>
-      <c r="D196" t="s">
-        <v>7</v>
-      </c>
-      <c r="E196" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>198</v>
-      </c>
-      <c r="B197" t="s">
-        <v>583</v>
-      </c>
-      <c r="C197" t="s">
-        <v>584</v>
-      </c>
-      <c r="D197" t="s">
-        <v>7</v>
-      </c>
-      <c r="E197" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>199</v>
-      </c>
-      <c r="B198" t="s">
-        <v>585</v>
-      </c>
-      <c r="C198" t="s">
-        <v>586</v>
-      </c>
-      <c r="D198" t="s">
-        <v>7</v>
-      </c>
-      <c r="E198" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>200</v>
-      </c>
-      <c r="B199" t="s">
-        <v>587</v>
-      </c>
-      <c r="C199" t="s">
-        <v>588</v>
-      </c>
-      <c r="D199" t="s">
-        <v>7</v>
-      </c>
-      <c r="E199" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>201</v>
-      </c>
-      <c r="B200" t="s">
-        <v>589</v>
-      </c>
-      <c r="C200" t="s">
-        <v>590</v>
-      </c>
-      <c r="D200" t="s">
-        <v>7</v>
-      </c>
-      <c r="E200" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>202</v>
-      </c>
-      <c r="B201" t="s">
-        <v>591</v>
-      </c>
-      <c r="C201" t="s">
-        <v>592</v>
-      </c>
-      <c r="D201" t="s">
-        <v>7</v>
-      </c>
-      <c r="E201" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>203</v>
-      </c>
-      <c r="B202" t="s">
-        <v>593</v>
-      </c>
-      <c r="C202" t="s">
-        <v>594</v>
-      </c>
-      <c r="D202" t="s">
-        <v>7</v>
-      </c>
-      <c r="E202" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>204</v>
-      </c>
-      <c r="B203" t="s">
-        <v>595</v>
-      </c>
-      <c r="C203" t="s">
-        <v>596</v>
-      </c>
-      <c r="D203" t="s">
-        <v>7</v>
-      </c>
-      <c r="E203" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>205</v>
-      </c>
-      <c r="B204" t="s">
-        <v>597</v>
-      </c>
-      <c r="C204" t="s">
-        <v>598</v>
-      </c>
-      <c r="D204" t="s">
-        <v>599</v>
-      </c>
-      <c r="E204" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>206</v>
-      </c>
-      <c r="B205" t="s">
-        <v>601</v>
-      </c>
-      <c r="C205" t="s">
-        <v>602</v>
-      </c>
-      <c r="D205" t="s">
-        <v>51</v>
-      </c>
-      <c r="E205" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>207</v>
-      </c>
-      <c r="B206" t="s">
-        <v>604</v>
-      </c>
-      <c r="C206" t="s">
-        <v>605</v>
-      </c>
-      <c r="D206" t="s">
-        <v>599</v>
-      </c>
-      <c r="E206" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>208</v>
-      </c>
-      <c r="B207" t="s">
-        <v>607</v>
-      </c>
-      <c r="C207" t="s">
-        <v>608</v>
-      </c>
-      <c r="D207" t="s">
-        <v>7</v>
-      </c>
-      <c r="E207" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>209</v>
-      </c>
-      <c r="B208" t="s">
-        <v>610</v>
-      </c>
-      <c r="C208" t="s">
-        <v>611</v>
-      </c>
-      <c r="D208" t="s">
-        <v>7</v>
-      </c>
-      <c r="E208" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>210</v>
-      </c>
-      <c r="B209" t="s">
-        <v>613</v>
-      </c>
-      <c r="C209" t="s">
-        <v>614</v>
-      </c>
-      <c r="D209" t="s">
-        <v>216</v>
-      </c>
-      <c r="E209" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>211</v>
-      </c>
-      <c r="B210" t="s">
-        <v>616</v>
-      </c>
-      <c r="C210" t="s">
-        <v>617</v>
-      </c>
-      <c r="D210" t="s">
-        <v>7</v>
-      </c>
-      <c r="E210" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>213</v>
-      </c>
-      <c r="B211" t="s">
-        <v>619</v>
-      </c>
-      <c r="C211" t="s">
-        <v>620</v>
-      </c>
-      <c r="D211" t="s">
-        <v>22</v>
-      </c>
-      <c r="E211" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>214</v>
-      </c>
-      <c r="B212" t="s">
-        <v>622</v>
-      </c>
-      <c r="C212" t="s">
-        <v>623</v>
-      </c>
-      <c r="D212" t="s">
-        <v>18</v>
-      </c>
-      <c r="E212" t="s">
         <v>624</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:E212">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A1:E180">
+    <cfRule type="containsBlanks" dxfId="4" priority="3">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>